--- a/Car sales Test Case.xlsx
+++ b/Car sales Test Case.xlsx
@@ -4,9 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Car Sales Test Case" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MindMap" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Car Sale Summary Report" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Car Sale Test Metrics" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Car Sale Test Metrics" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="MindMap" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Car Sale Summary Report" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name=" Bug Report" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -1576,6 +1576,45 @@
     <t>test_78</t>
   </si>
   <si>
+    <t>Car Sale TEST METRICS</t>
+  </si>
+  <si>
+    <t>Sl</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Result %</t>
+  </si>
+  <si>
+    <t>Test Case Executed</t>
+  </si>
+  <si>
+    <t>Test Case Not Executed</t>
+  </si>
+  <si>
+    <t>Test Case Passed</t>
+  </si>
+  <si>
+    <t>Test Case Failed</t>
+  </si>
+  <si>
+    <t>Test Case Blocked</t>
+  </si>
+  <si>
+    <t>Deffect Density</t>
+  </si>
+  <si>
+    <t>Deffect Leakage</t>
+  </si>
+  <si>
+    <t>Customer Statisfaction</t>
+  </si>
+  <si>
+    <t>Deffect Removal Efficiency</t>
+  </si>
+  <si>
     <t>MINDMAP</t>
   </si>
   <si>
@@ -1613,45 +1652,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Car Sale TEST METRICS</t>
-  </si>
-  <si>
-    <t>Sl</t>
-  </si>
-  <si>
-    <t>Metrics</t>
-  </si>
-  <si>
-    <t>Result %</t>
-  </si>
-  <si>
-    <t>Test Case Executed</t>
-  </si>
-  <si>
-    <t>Test Case Not Executed</t>
-  </si>
-  <si>
-    <t>Test Case Passed</t>
-  </si>
-  <si>
-    <t>Test Case Failed</t>
-  </si>
-  <si>
-    <t>Test Case Blocked</t>
-  </si>
-  <si>
-    <t>Deffect Density</t>
-  </si>
-  <si>
-    <t>Deffect Leakage</t>
-  </si>
-  <si>
-    <t>Customer Statisfaction</t>
-  </si>
-  <si>
-    <t>Deffect Removal Efficiency</t>
   </si>
   <si>
     <t>Bug Id</t>
@@ -1793,21 +1793,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
@@ -1828,6 +1813,21 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1905,6 +1905,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -1913,18 +1925,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2063,7 +2063,31 @@
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="15" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="14" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2072,52 +2096,28 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="18" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="17" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="17" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2132,7 +2132,7 @@
     <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2255,6 +2255,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2287,7 +2291,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2315,10 +2319,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12198,15 +12198,126 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col customWidth="1" min="2" max="2" width="31.75"/>
+    <col customWidth="1" min="3" max="3" width="22.38"/>
+    <col customWidth="1" min="4" max="4" width="20.88"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="39" t="s">
         <v>432</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0.9868</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="42">
+        <v>0.4133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0.5867</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:C3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12221,139 +12332,17 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="21.63"/>
-  </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="40" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="43"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50">
-        <v>31.0</v>
-      </c>
-      <c r="C11" s="50">
-        <v>44.0</v>
-      </c>
-      <c r="D11" s="50">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="50">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="49">
-        <f t="shared" ref="B12:F12" si="1">SUM(B11)</f>
-        <v>31</v>
-      </c>
-      <c r="C12" s="49">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D12" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="49">
-        <f t="shared" si="1"/>
-        <v>76</v>
+      <c r="A2" s="47" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12367,127 +12356,138 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="31.75"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
-    <col customWidth="1" min="4" max="4" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="21.63"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="52" t="s">
-        <v>445</v>
-      </c>
+      <c r="A2" s="48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="51"/>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>448</v>
       </c>
+      <c r="B4" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="51"/>
     </row>
     <row r="5">
-      <c r="A5" s="54">
+      <c r="A5" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="51"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="51"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="51"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58">
+        <v>31.0</v>
+      </c>
+      <c r="C11" s="58">
+        <v>44.0</v>
+      </c>
+      <c r="D11" s="58">
         <v>1.0</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="55">
-        <v>0.9857</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="54">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="55">
-        <v>0.0143</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="54">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="55">
-        <v>0.4492</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="54">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="55">
-        <v>0.5507</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="54">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="57">
+      <c r="E11" s="58">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="54">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="54">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="58"/>
+      <c r="F11" s="58">
+        <v>76.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="54">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>456</v>
-      </c>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="54">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="A12" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="58"/>
+      <c r="B12" s="57">
+        <f t="shared" ref="B12:F12" si="1">SUM(B11)</f>
+        <v>31</v>
+      </c>
+      <c r="C12" s="57">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="57">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12548,10 +12548,10 @@
       <c r="C5" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="56" t="s">
         <v>460</v>
       </c>
       <c r="F5" s="64" t="s">
@@ -12563,13 +12563,13 @@
       <c r="H5" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="56" t="s">
         <v>465</v>
       </c>
       <c r="L5" s="65"/>
@@ -12620,7 +12620,7 @@
         <v>472</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
@@ -12655,7 +12655,7 @@
         <v>476</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">

--- a/Car sales Test Case.xlsx
+++ b/Car sales Test Case.xlsx
@@ -1715,7 +1715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1755,11 +1755,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
@@ -1768,13 +1763,8 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1814,6 +1804,11 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1959,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2003,13 +1998,7 @@
     <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2024,7 +2013,7 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2039,7 +2028,7 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -2051,10 +2040,10 @@
     <xf borderId="2" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2063,28 +2052,28 @@
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="15" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="11" fontId="13" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="11" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="14" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="11" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2093,31 +2082,31 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2129,17 +2118,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2715,2898 +2704,2898 @@
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>1.0</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>2.0</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>3.0</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>4.0</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="27" t="s">
+      <c r="K14" s="31"/>
+      <c r="L14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>5.0</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="27" t="s">
+      <c r="K15" s="31"/>
+      <c r="L15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>6.0</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>7.0</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>8.0</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>9.0</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>10.0</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>11.0</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>12.0</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="27" t="s">
+      <c r="K22" s="31"/>
+      <c r="L22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>13.0</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="22" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>14.0</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25">
-      <c r="A25" s="21">
+      <c r="A25" s="19">
         <v>15.0</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="22" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>16.0</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="21">
+      <c r="A27" s="19">
         <v>17.0</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="27" t="s">
+      <c r="K27" s="31"/>
+      <c r="L27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="19">
         <v>18.0</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="22" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="27" t="s">
+      <c r="K28" s="31"/>
+      <c r="L28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29">
-      <c r="A29" s="21">
+      <c r="A29" s="19">
         <v>19.0</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="19">
         <v>20.0</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="27" t="s">
+      <c r="K30" s="31"/>
+      <c r="L30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31">
-      <c r="A31" s="21">
+      <c r="A31" s="19">
         <v>21.0</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="22" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>22.0</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="27" t="s">
+      <c r="K32" s="31"/>
+      <c r="L32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33">
-      <c r="A33" s="21">
+      <c r="A33" s="19">
         <v>23.0</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27" t="s">
+      <c r="K33" s="24"/>
+      <c r="L33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34">
-      <c r="A34" s="21">
+      <c r="A34" s="19">
         <v>24.0</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35">
-      <c r="A35" s="21">
+      <c r="A35" s="19">
         <v>25.0</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36">
-      <c r="A36" s="21">
+      <c r="A36" s="19">
         <v>26.0</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37">
-      <c r="A37" s="21">
+      <c r="A37" s="19">
         <v>27.0</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38">
-      <c r="A38" s="21">
+      <c r="A38" s="19">
         <v>28.0</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="39">
-      <c r="A39" s="21">
+      <c r="A39" s="19">
         <v>29.0</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40">
-      <c r="A40" s="21">
+      <c r="A40" s="19">
         <v>30.0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41">
-      <c r="A41" s="21">
+      <c r="A41" s="19">
         <v>27.0</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="22" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="L41" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42">
-      <c r="A42" s="21">
+      <c r="A42" s="19">
         <v>28.0</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43">
-      <c r="A43" s="21">
+      <c r="A43" s="19">
         <v>29.0</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27" t="s">
+      <c r="K43" s="24"/>
+      <c r="L43" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44">
-      <c r="A44" s="21">
+      <c r="A44" s="19">
         <v>30.0</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27" t="s">
+      <c r="K44" s="24"/>
+      <c r="L44" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45">
-      <c r="A45" s="21">
+      <c r="A45" s="19">
         <v>31.0</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27" t="s">
+      <c r="K45" s="24"/>
+      <c r="L45" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46">
-      <c r="A46" s="21">
+      <c r="A46" s="19">
         <v>32.0</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L46" s="32" t="s">
+      <c r="L46" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
     </row>
     <row r="47">
-      <c r="A47" s="21">
+      <c r="A47" s="19">
         <v>33.0</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="L47" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48">
-      <c r="A48" s="21">
+      <c r="A48" s="19">
         <v>34.0</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J48" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L48" s="32" t="s">
+      <c r="L48" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49">
-      <c r="A49" s="21">
+      <c r="A49" s="19">
         <v>35.0</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L49" s="32" t="s">
+      <c r="L49" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50">
-      <c r="A50" s="21">
+      <c r="A50" s="19">
         <v>36.0</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="L50" s="32" t="s">
+      <c r="L50" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
     </row>
     <row r="51">
-      <c r="A51" s="21">
+      <c r="A51" s="19">
         <v>37.0</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J51" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="L51" s="32" t="s">
+      <c r="L51" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52">
-      <c r="A52" s="21">
+      <c r="A52" s="19">
         <v>38.0</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27" t="s">
+      <c r="K52" s="24"/>
+      <c r="L52" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53">
-      <c r="A53" s="21">
+      <c r="A53" s="19">
         <v>39.0</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22" t="s">
+      <c r="C53" s="27"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="L53" s="32" t="s">
+      <c r="L53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54">
-      <c r="A54" s="21">
+      <c r="A54" s="19">
         <v>40.0</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="J54" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="L54" s="32" t="s">
+      <c r="L54" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
     </row>
     <row r="55">
-      <c r="A55" s="21">
+      <c r="A55" s="19">
         <v>41.0</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="22" t="s">
+      <c r="C55" s="27"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="L55" s="32" t="s">
+      <c r="L55" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
     </row>
     <row r="56">
-      <c r="A56" s="21">
+      <c r="A56" s="19">
         <v>42.0</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="22" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="J56" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="L56" s="32" t="s">
+      <c r="L56" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57">
-      <c r="A57" s="21">
+      <c r="A57" s="19">
         <v>43.0</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="27"/>
+      <c r="D57" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="L57" s="32" t="s">
+      <c r="L57" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58">
-      <c r="A58" s="21">
+      <c r="A58" s="19">
         <v>44.0</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
+      <c r="C58" s="27"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="J58" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27" t="s">
+      <c r="K58" s="24"/>
+      <c r="L58" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
     </row>
     <row r="59">
-      <c r="A59" s="21">
+      <c r="A59" s="19">
         <v>45.0</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="22" t="s">
+      <c r="C59" s="27"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="K59" s="26" t="s">
+      <c r="K59" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L59" s="32" t="s">
+      <c r="L59" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
     </row>
     <row r="60">
-      <c r="A60" s="21">
+      <c r="A60" s="19">
         <v>46.0</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22" t="s">
+      <c r="C60" s="27"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="25" t="s">
+      <c r="J60" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27" t="s">
+      <c r="K60" s="24"/>
+      <c r="L60" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61">
-      <c r="A61" s="21">
+      <c r="A61" s="19">
         <v>47.0</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="27"/>
+      <c r="D61" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J61" s="25" t="s">
+      <c r="J61" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="K61" s="33"/>
-      <c r="L61" s="27" t="s">
+      <c r="K61" s="31"/>
+      <c r="L61" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62">
-      <c r="A62" s="21">
+      <c r="A62" s="19">
         <v>48.0</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="22" t="s">
+      <c r="C62" s="27"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="L62" s="32" t="s">
+      <c r="L62" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
     </row>
     <row r="63">
-      <c r="A63" s="21">
+      <c r="A63" s="19">
         <v>49.0</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="22" t="s">
+      <c r="C63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="K63" s="35" t="s">
+      <c r="K63" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="L63" s="32" t="s">
+      <c r="L63" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
     </row>
     <row r="64">
-      <c r="A64" s="21">
+      <c r="A64" s="19">
         <v>50.0</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="22" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="K64" s="33"/>
-      <c r="L64" s="27" t="s">
+      <c r="K64" s="31"/>
+      <c r="L64" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65">
-      <c r="A65" s="21">
+      <c r="A65" s="19">
         <v>51.0</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="22" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="25" t="s">
+      <c r="J65" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="K65" s="33"/>
-      <c r="L65" s="27" t="s">
+      <c r="K65" s="31"/>
+      <c r="L65" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66">
-      <c r="A66" s="21">
+      <c r="A66" s="19">
         <v>52.0</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="27" t="s">
+      <c r="K66" s="31"/>
+      <c r="L66" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
     </row>
     <row r="67">
-      <c r="A67" s="21">
+      <c r="A67" s="19">
         <v>53.0</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="22" t="s">
+      <c r="C67" s="27"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J67" s="25" t="s">
+      <c r="J67" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="K67" s="33"/>
-      <c r="L67" s="27" t="s">
+      <c r="K67" s="31"/>
+      <c r="L67" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
     </row>
     <row r="68">
-      <c r="A68" s="21">
+      <c r="A68" s="19">
         <v>54.0</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="22" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H68" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="K68" s="31" t="s">
+      <c r="K68" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="L68" s="32" t="s">
+      <c r="L68" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
     </row>
     <row r="69">
-      <c r="A69" s="21">
+      <c r="A69" s="19">
         <v>55.0</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="22" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H69" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J69" s="25" t="s">
+      <c r="J69" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="K69" s="31" t="s">
+      <c r="K69" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
     </row>
     <row r="70">
-      <c r="A70" s="21">
+      <c r="A70" s="19">
         <v>56.0</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="22" t="s">
+      <c r="C70" s="27"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="H70" s="22" t="s">
+      <c r="H70" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="I70" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="25" t="s">
+      <c r="J70" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="L70" s="32" t="s">
+      <c r="L70" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
     </row>
     <row r="71">
-      <c r="A71" s="21">
+      <c r="A71" s="19">
         <v>57.0</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="22" t="s">
+      <c r="C71" s="27"/>
+      <c r="D71" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="22" t="s">
+      <c r="H71" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="K71" s="31" t="s">
+      <c r="K71" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="L71" s="32" t="s">
+      <c r="L71" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
     </row>
     <row r="72">
-      <c r="A72" s="21">
+      <c r="A72" s="19">
         <v>58.0</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="22" t="s">
+      <c r="C72" s="27"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="H72" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="I72" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="K72" s="31" t="s">
+      <c r="K72" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="L72" s="32" t="s">
+      <c r="L72" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
     </row>
     <row r="73">
-      <c r="A73" s="21">
+      <c r="A73" s="19">
         <v>59.0</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="22" t="s">
+      <c r="C73" s="27"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="I73" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J73" s="25" t="s">
+      <c r="J73" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="K73" s="33"/>
-      <c r="L73" s="27" t="s">
+      <c r="K73" s="31"/>
+      <c r="L73" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
     </row>
     <row r="74">
-      <c r="A74" s="21">
+      <c r="A74" s="19">
         <v>60.0</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="22" t="s">
+      <c r="C74" s="27"/>
+      <c r="D74" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="I74" s="22" t="s">
+      <c r="I74" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J74" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="K74" s="31" t="s">
+      <c r="K74" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="L74" s="32" t="s">
+      <c r="L74" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
     </row>
     <row r="75">
-      <c r="A75" s="21">
+      <c r="A75" s="19">
         <v>61.0</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="22" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="I75" s="22" t="s">
+      <c r="I75" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J75" s="25" t="s">
+      <c r="J75" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="K75" s="33"/>
-      <c r="L75" s="27" t="s">
+      <c r="K75" s="31"/>
+      <c r="L75" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
     </row>
     <row r="76">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="22" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G76" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J76" s="25" t="s">
+      <c r="J76" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="K76" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="L76" s="32" t="s">
+      <c r="L76" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
     </row>
     <row r="77">
-      <c r="A77" s="21">
+      <c r="A77" s="19">
         <v>62.0</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="22" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J77" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="K77" s="33"/>
-      <c r="L77" s="27" t="s">
+      <c r="K77" s="31"/>
+      <c r="L77" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
     </row>
     <row r="78">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="22" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="J78" s="25" t="s">
+      <c r="J78" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="K78" s="35" t="s">
+      <c r="K78" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="L78" s="32" t="s">
+      <c r="L78" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
     </row>
     <row r="79">
-      <c r="A79" s="21">
+      <c r="A79" s="19">
         <v>63.0</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="22" t="s">
+      <c r="C79" s="27"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="25" t="s">
+      <c r="J79" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K79" s="33"/>
-      <c r="L79" s="27" t="s">
+      <c r="K79" s="31"/>
+      <c r="L79" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
     </row>
     <row r="80">
-      <c r="A80" s="21">
+      <c r="A80" s="19">
         <v>64.0</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="22" t="s">
+      <c r="C80" s="27"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="I80" s="22" t="s">
+      <c r="I80" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="K80" s="33"/>
-      <c r="L80" s="27" t="s">
+      <c r="K80" s="31"/>
+      <c r="L80" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
     </row>
     <row r="81">
-      <c r="A81" s="21">
+      <c r="A81" s="19">
         <v>65.0</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="22" t="s">
+      <c r="C81" s="27"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H81" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="I81" s="22" t="s">
+      <c r="I81" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J81" s="25" t="s">
+      <c r="J81" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="K81" s="25" t="s">
+      <c r="K81" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="L81" s="38"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
     </row>
     <row r="82">
-      <c r="A82" s="21">
+      <c r="A82" s="19">
         <v>66.0</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="22" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="I82" s="22" t="s">
+      <c r="I82" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J82" s="25" t="s">
+      <c r="J82" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="K82" s="33"/>
-      <c r="L82" s="27" t="s">
+      <c r="K82" s="31"/>
+      <c r="L82" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
     </row>
     <row r="83">
-      <c r="A83" s="21">
+      <c r="A83" s="19">
         <v>67.0</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="22" t="s">
+      <c r="C83" s="27"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I83" s="22" t="s">
+      <c r="I83" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J83" s="25" t="s">
+      <c r="J83" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="K83" s="33"/>
-      <c r="L83" s="27" t="s">
+      <c r="K83" s="31"/>
+      <c r="L83" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
     </row>
     <row r="84">
-      <c r="A84" s="21">
+      <c r="A84" s="19">
         <v>68.0</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="22" t="s">
+      <c r="C84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="G84" s="25" t="s">
+      <c r="G84" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H84" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I84" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="25" t="s">
+      <c r="J84" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="27" t="s">
+      <c r="K84" s="31"/>
+      <c r="L84" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
     </row>
     <row r="85">
-      <c r="A85" s="21">
+      <c r="A85" s="19">
         <v>69.0</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="22" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H85" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I85" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J85" s="25" t="s">
+      <c r="J85" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="K85" s="33"/>
-      <c r="L85" s="27" t="s">
+      <c r="K85" s="31"/>
+      <c r="L85" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
     </row>
     <row r="86">
-      <c r="A86" s="21">
+      <c r="A86" s="19">
         <v>70.0</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="22" t="s">
+      <c r="C86" s="27"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="G86" s="25" t="s">
+      <c r="G86" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="H86" s="22" t="s">
+      <c r="H86" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I86" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="25" t="s">
+      <c r="J86" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="K86" s="33"/>
-      <c r="L86" s="27" t="s">
+      <c r="K86" s="31"/>
+      <c r="L86" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
     </row>
     <row r="87">
-      <c r="A87" s="21">
+      <c r="A87" s="19">
         <v>71.0</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
     </row>
     <row r="88">
-      <c r="A88" s="21">
+      <c r="A88" s="19">
         <v>72.0</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
     </row>
     <row r="89">
       <c r="C89" s="2"/>
@@ -12206,114 +12195,114 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41">
+      <c r="A5" s="39">
         <v>1.0</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>0.9868</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="41">
+      <c r="A6" s="39">
         <v>2.0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>0.0131</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41">
+      <c r="A7" s="39">
         <v>3.0</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>0.4133</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="41">
+      <c r="A8" s="39">
         <v>4.0</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>0.5867</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41">
+      <c r="A9" s="39">
         <v>5.0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="41">
+      <c r="A10" s="39">
         <v>6.0</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11">
-      <c r="A11" s="41">
+      <c r="A11" s="39">
         <v>7.0</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12">
-      <c r="A12" s="41">
+      <c r="A12" s="39">
         <v>8.0</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13">
-      <c r="A13" s="41">
+      <c r="A13" s="39">
         <v>9.0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12334,7 +12323,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>445</v>
       </c>
     </row>
@@ -12360,121 +12349,121 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="54" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56">
         <v>31.0</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>44.0</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>1.0</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="56">
         <v>0.0</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="56">
         <v>76.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <f t="shared" ref="B12:F12" si="1">SUM(B11)</f>
         <v>31</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -12511,13 +12500,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2">
@@ -12539,249 +12528,249 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
     </row>
     <row r="6">
-      <c r="A6" s="61">
+      <c r="A6" s="59">
         <v>1.0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="65" t="s">
         <v>471</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="59" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61">
+      <c r="A7" s="59">
         <v>2.0</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="59" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11">
-      <c r="B11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12">
-      <c r="B12" s="61"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13">
-      <c r="B13" s="61"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14">
-      <c r="B14" s="61"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15">
-      <c r="B15" s="61"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16">
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17">
-      <c r="B17" s="61"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18">
-      <c r="B18" s="61"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19">
-      <c r="B19" s="61"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20">
-      <c r="B20" s="61"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21">
-      <c r="B21" s="61"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22">
-      <c r="B22" s="61"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23">
-      <c r="B23" s="61"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24">
-      <c r="B24" s="61"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
